--- a/cadence.xlsx
+++ b/cadence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur.lurye/Documents/automateHeroBanners/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur.lurye/Documents/cadence-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA18524A-C5E2-AF49-AAE8-B2C51704A928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C31E86A-4D69-6F4C-84D1-2294F54B12EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1820" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
+    <workbookView xWindow="2600" yWindow="1660" windowWidth="29240" windowHeight="16940" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Promo Short Billboard" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,9 @@
     <t>brandDescription</t>
   </si>
   <si>
+    <t>50% OFF</t>
+  </si>
+  <si>
     <t>20% OFF</t>
   </si>
   <si>
@@ -72,15 +75,6 @@
     <t>Shop Now</t>
   </si>
   <si>
-    <t>BOIRON_BOGO50_1203_SecondaryBillboard</t>
-  </si>
-  <si>
-    <t>BOGO 50% Off Boiron Supplements</t>
-  </si>
-  <si>
-    <t>Fight flu-like symptoms with homeopathic Oscillococcinum, Chestal for kids, and more.</t>
-  </si>
-  <si>
     <t>brandName</t>
   </si>
   <si>
@@ -237,116 +231,152 @@
     <t>BodyTech</t>
   </si>
   <si>
-    <t>S_2002_FROZEN20 20p off 75</t>
-  </si>
-  <si>
-    <t>ng-click="asset.promoClick({id : '2002_FROZEN20 20p off 75 Hero Banner', position : 'Hero Banner', name : '2002_FROZEN20 20p off 75', creative: '20% Off'})"</t>
-  </si>
-  <si>
     <t>/c/best-sellers/N-cp99qp</t>
   </si>
   <si>
-    <t>FROZEN20Coupon_Web_L3</t>
-  </si>
-  <si>
-    <t>your order of $75 or more</t>
-  </si>
-  <si>
     <t>/p/amino-energy-collagen-grape-remix-9-5-oz-powder/op-1242</t>
   </si>
   <si>
-    <t>NaturesPlus_BOGO50_012720_Web_SecondaryBillboard</t>
-  </si>
-  <si>
-    <t>Optimum_BOGO50_012720_Web_SecondaryBillboard</t>
-  </si>
-  <si>
-    <t>GardenofLife_20off_012720_Web_SecondaryBillboard</t>
-  </si>
-  <si>
-    <t>ng-click="asset.promoClick({id :  '2002_Natures Plus BOGO50 Promotional Short Billboard 1', position : 'Promotional Short Billboard 1', name : '2002_Natures Plus BOGO50', creative: 'BOGO50'})"</t>
-  </si>
-  <si>
     <t>/b/natures-plus/N-97w</t>
   </si>
   <si>
-    <t>ng-click="asset.promoClick({id :  '2002_Optimum Amino Energy plus collagen BOGO50 Promotional Short Billboard 2', position : 'Promotional Short Billboard 2', name : '2002_Optimum Amino Energy plus collagen BOGO50', creative: 'BOGO50'})"</t>
-  </si>
-  <si>
     <t>/b/optimum-nutrition-performance-supplements/N-991Zcp99ja</t>
   </si>
   <si>
-    <t>ng-click="asset.promoClick({id :  '2002_GOL Dr Formulated Raw Probiotics 20p off Promotional Short Billboard 3', position : 'Promotional Short Billboard 3', name : '2002_GOL Dr Formulated Raw Probiotics 20p off', creative: '20% Off'})"</t>
-  </si>
-  <si>
-    <t>/b/garden-of-life-digestion/N-93uZcp99jm</t>
-  </si>
-  <si>
-    <t>ng-click="asset.promoClick({id :  '2002_Nugenix 20p off Promotional Short Billboard 4', position : 'Promotional Short Billboard 4', name : '2002_Nugenix 20p off', creative: '20% Off'})"</t>
-  </si>
-  <si>
-    <t>/b/nugenix/N-cp982s</t>
-  </si>
-  <si>
-    <t>BOGO 50% Off NaturesPlus Supplements</t>
-  </si>
-  <si>
-    <t>Everybody needs a great multi. Get yours with Acai,  Resveratrol, &amp; 120+ whole foods!</t>
-  </si>
-  <si>
-    <t>BOGO 50% Off AMIN.O. Energy By Optimum Nutrition</t>
-  </si>
-  <si>
-    <t>Support focus &amp; recovery—now available with UC-II&lt;sup&gt;&amp;reg;&lt;/sup&gt; Collagen, clinically shown to improve joint comfort &amp; mobility!</t>
-  </si>
-  <si>
-    <t>20% Off Dr. Formulated &amp; Raw Probiotics</t>
-  </si>
-  <si>
-    <t>Save on probiotics from Garden of Life for digestive balance and immune health. Because your wellbeing is worth it.</t>
-  </si>
-  <si>
     <t>postHeaderText2</t>
   </si>
   <si>
     <t>postHeaderText3</t>
   </si>
   <si>
-    <t>PLUS FREE SHIPPING</t>
-  </si>
-  <si>
-    <t>Online Only | Use code: &lt;span&gt;FROZEN20&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>S_2002_GAMEPLAN 10d off 40 BOPUS</t>
-  </si>
-  <si>
     <t>ng-click="asset.promoClick({id :  '2002_GAMEPLAN 10d off 40 BOPUS Hero Banner', position : 'Hero Banner', name : '2002_GAMEPLAN 10d off 40 BOPUS', creative: '$10 Off'})"</t>
   </si>
   <si>
-    <t>GAMEPLANCoupon_Web_L3</t>
-  </si>
-  <si>
-    <t>SCORE $10 OFF</t>
-  </si>
-  <si>
-    <t>your order of $40 or more with 2-Hour Pickup *</t>
-  </si>
-  <si>
-    <t>Use code: &lt;span&gt;GAMEPLAN&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>icon</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>S_2002_VSB BOGO50 V1</t>
+  </si>
+  <si>
+    <t>S_2002_BT and BTE 20p off</t>
+  </si>
+  <si>
+    <t>S_2002_Natures Plus BOGO50</t>
+  </si>
+  <si>
+    <t>S_2002_Optimum Amino Energy plus collagen BOGO50</t>
+  </si>
+  <si>
+    <t>BOGO50VSB_012720_Web_L3</t>
+  </si>
+  <si>
+    <t>BodytechBTE_20off_012720_Web_L3</t>
+  </si>
+  <si>
+    <t>NaturesPlus_BOGO50_012720_Web_L3</t>
+  </si>
+  <si>
+    <t>Optimum_BOGO50_012720_Web_L3</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_VSB BOGO50 V1 Hero Banner', position : 'Hero Banner', name : '2002_VSB BOGO50 V1', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>BUY ONE, GET ONE</t>
+  </si>
+  <si>
+    <t>The Vitamin Shoppe&lt;sup&gt;&amp;reg;&lt;/sup&gt; brand supplements</t>
+  </si>
+  <si>
+    <t>BodyTech&lt;sup&gt;&amp;reg;&lt;/sup&gt; &amp;amp; BodyTech&lt;sup&gt;&amp;reg;&lt;/sup&gt; brand sports nutrition</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id : '2002_Natures Plus BOGO50 Hero Banner', position : 'Hero Banner', name : '2002_Natures Plus BOGO50', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>NaturesPlus supplements</t>
+  </si>
+  <si>
+    <t>all Optimum Nutrition AMIN.O Energy products&lt;br&gt; featuring AMIN.O Energy Plus UC-11&lt;sup&gt;&amp;reg;&lt;/sup&gt; Collagen</t>
+  </si>
+  <si>
+    <t>Nourish yourself, inside and out. with naturally-sourced products from top beauty brands including Reserveage!</t>
+  </si>
+  <si>
+    <t>SHOP SALE &gt;</t>
+  </si>
+  <si>
+    <t>SHOP NOW &gt;</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_Optimum Amino Energy plus collagen BOGO50 Hero Banner', position : 'Hero Banner', name : '2002_Optimum Amino Energy plus collagen BOGO50', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>/b/women-s-best/N-cp9a6g</t>
+  </si>
+  <si>
+    <t>WEB WK8 021720 Digestive Event 105625_Web_SecondaryBillboard</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_4 Day Digestive event 20p off Promotional Short Billboard 1', position : 'Promotional Short Billboard 1', name : '2002_4 Day Digestive event 20p off', creative: '20% Off'})"</t>
+  </si>
+  <si>
+    <t>/c/digestive-health-sale/N-cp99y8</t>
+  </si>
+  <si>
+    <t>Limited Time Only: Up To 20% Off Digestive Support</t>
+  </si>
+  <si>
+    <t>Nourish your gut with the right mix of probiotic strains featuring active bacterial cultures.</t>
+  </si>
+  <si>
+    <t>WomensBestLaunch_BOGO50_020320_SecondaryBillboard_01</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_Womens Best Launch and BOGO50 Promotional Short Billboard 2', position : 'Promotional Short Billboard 2', name : '2002_Womens Best Launch and BOGO50', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>BOGO 50% Off NEW Women's Best&lt;sup&gt;&amp;trade;&lt;/sup&gt; Premium Supplements</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_Solaray Leaf therapeutics cbd 20p off Promotional Short Billboard 3', position : 'Promotional Short Billboard 3', name : '2002_Solaray Leaf therapeutics cbd 20p off', creative: '20% Off'})"</t>
+  </si>
+  <si>
+    <t>/c/cbd-hemp-extract/solaray/N-cp9a1pZ9b0</t>
+  </si>
+  <si>
+    <t>SOLARAY_20OFF_012720_Web_SecondaryBillboard</t>
+  </si>
+  <si>
+    <t>20% Off Leaf Therapeutics Hemp Extract By Solaray</t>
+  </si>
+  <si>
+    <t>Explore hemp extract for balance—plus targeted blends for pain &amp; sleep—with a full spectrum array of beneficial phytocannabinoids.</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2002_Jocko Lauch Promotional Short Billboard 4', position : 'Promotional Short Billboard 4', name : '2002_Jocko Lauch', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>/b/jocko-fuel/N-cp9a4i</t>
+  </si>
+  <si>
+    <t>Jocko_newbrandlaunch_012720_Web_SecondaryBillboard</t>
+  </si>
+  <si>
+    <t>Introducing Jocko Fuel</t>
+  </si>
+  <si>
+    <t>Built to work. Made for life. These new supplements are backed by science &amp; developed with retired Navy Seal Jocko Willink.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,11 +411,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -445,16 +470,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,11 +795,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FEE12E-A1B2-7945-8CDA-9BE45F21A83A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -798,83 +829,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>77</v>
+      <c r="A2" t="s">
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>79</v>
+      <c r="A3" t="s">
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -886,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCEFC6D-EE13-EF4B-A2EA-D63CE352C75D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -926,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -937,67 +968,107 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G4" s="2"/>
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" s="2"/>
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" s="3"/>
@@ -1042,10 +1113,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1053,162 +1124,162 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>2151256</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
       <c r="D3">
         <v>2198141</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2193134</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>2194546</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>2148294</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>2189876</v>
       </c>
       <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>2189215</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>2172005</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1227,61 +1298,61 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/cadence.xlsx
+++ b/cadence.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine.lebedeva/Desktop/work/training/cadence-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE364F4C-B970-F047-B02B-4507CDD7D81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDA21D-C7F4-5E48-BBEF-F554F24CCFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18560" windowHeight="18000" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Html Ads" sheetId="4" r:id="rId1"/>
+    <sheet name="BOTB" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -39,74 +39,95 @@
     <t>url</t>
   </si>
   <si>
-    <t>ctaText</t>
-  </si>
-  <si>
-    <t>imageName</t>
-  </si>
-  <si>
-    <t>Shop Now</t>
-  </si>
-  <si>
-    <t>/c/best-sellers/N-cp99qp</t>
-  </si>
-  <si>
-    <t>a1PreHeader</t>
-  </si>
-  <si>
-    <t>a1Header</t>
-  </si>
-  <si>
-    <t>a1PostHeader</t>
-  </si>
-  <si>
-    <t>a2Header</t>
-  </si>
-  <si>
-    <t>a2PostHeader</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>snowedin</t>
-  </si>
-  <si>
-    <t>1-AQ WK 6 SNOWEDIN_160x600 2</t>
-  </si>
-  <si>
-    <t>1-AQ WK 6 SNOWEDIN_300x250</t>
-  </si>
-  <si>
-    <t>1-AQ WK 6 SNOWEDIN_300x600 2</t>
-  </si>
-  <si>
-    <t>1-AQ WK 6 SNOWEDIN_728X90</t>
-  </si>
-  <si>
-    <t>a2PreHeader</t>
-  </si>
-  <si>
-    <t>ONLINE ONLY</t>
-  </si>
-  <si>
-    <t>20% OFF</t>
-  </si>
-  <si>
-    <t>your order of $100 or more</t>
-  </si>
-  <si>
-    <t>Your wellness nourney starts here.</t>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>answerId</t>
+  </si>
+  <si>
+    <t>pollId</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>BPI Sports</t>
+  </si>
+  <si>
+    <t>product-block</t>
+  </si>
+  <si>
+    <t>/p/keto-fat-bombs-peanut-butter-cup-14-cup/nfl1006</t>
+  </si>
+  <si>
+    <t>/p/keto-crisps-cheddar-1-bag/klg1012</t>
+  </si>
+  <si>
+    <t>/p/keto-weight-loss-75-capsules/1b-1139</t>
+  </si>
+  <si>
+    <t>/p/keto-shake-double-chocolate-milkshake-18-7-oz-powder/nfl1003</t>
+  </si>
+  <si>
+    <t>/p/bhb-peach-mango/vs-3860</t>
+  </si>
+  <si>
+    <t>/p/keto-hydration/vs-3862</t>
+  </si>
+  <si>
+    <t>Nature Fuel</t>
+  </si>
+  <si>
+    <t>KetoLogic</t>
+  </si>
+  <si>
+    <t>Nature Fuel Keto Fat Bombs</t>
+  </si>
+  <si>
+    <t>Ketologic Keto Crisps Cheddar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETO WEIGHT LOSS              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETO SHAKE CHOCOLATE          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHB PEACH MANGO               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KETO HYDRATION                </t>
+  </si>
+  <si>
+    <t>fitfactor KETO</t>
+  </si>
+  <si>
+    <t>PEACH MANGO</t>
+  </si>
+  <si>
+    <t>DOUBLE CHOCOLATE MILKSHAKE</t>
+  </si>
+  <si>
+    <t>CHEDDAR</t>
+  </si>
+  <si>
+    <t>PEANUT BUTTER CUP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +147,24 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF959595"/>
+      <name val="Corisanderegular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF959595"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,10 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,221 +516,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97937D2D-018D-134D-A749-21622E15C291}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="19">
+      <c r="A2">
+        <v>10502873</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="3">
+        <v>2168953</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5">
+        <v>48577991</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19">
+      <c r="A3">
+        <v>10502873</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" s="3">
+        <v>2173029</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5">
+        <v>48577992</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19">
+      <c r="A4">
+        <v>10502873</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2102978</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G4" s="5">
+        <v>48577993</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>160</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="19">
+      <c r="A5">
+        <v>10502873</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C5" s="3">
+        <v>2168904</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>300</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="5">
+        <v>48577994</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19">
+      <c r="A6">
+        <v>10502873</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>600</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" s="3">
+        <v>2189215</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5">
+        <v>48577995</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19">
+      <c r="A7">
+        <v>10502873</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>320</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>728</v>
-      </c>
-      <c r="B6">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="3">
+        <v>2189272</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>48577996</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://www.vitaminshoppe.com/c/best-sellers/N-cp99qp" xr:uid="{A2E1A15E-D43F-7341-892F-5A7360845AD0}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.vitaminshoppe.com/p/keto-fat-bombs-peanut-butter-cup-14-cup/nfl1006" xr:uid="{CA1A45FB-AB26-5449-A436-0D6154781AA8}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.vitaminshoppe.com/p/keto-crisps-cheddar-1-bag/klg1012" xr:uid="{7D297F2B-D207-8743-A42F-B5D5F05BC131}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.vitaminshoppe.com/p/keto-weight-loss-75-capsules/1b-1139" xr:uid="{0E4BC3DE-0DF9-CA48-8495-7F3FED77C7DF}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.vitaminshoppe.com/p/keto-shake-double-chocolate-milkshake-18-7-oz-powder/nfl1003" xr:uid="{1CB50D2C-924C-6349-8E19-DA80FC151AE6}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.vitaminshoppe.com/p/bhb-peach-mango/vs-3860" xr:uid="{929E7D73-5337-C048-AE22-CF7AA86583DD}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.vitaminshoppe.com/p/keto-hydration/vs-3862" xr:uid="{AD37F887-7B5B-5145-ADBA-284958CDD4A2}"/>
+    <hyperlink ref="D2" r:id="rId7" display="https://www.vitaminshoppe.com/b/nature-fuel/N-cp9a0h" xr:uid="{BBF8A427-9577-1C46-AFC6-4DD49AEF6938}"/>
+    <hyperlink ref="D3" r:id="rId8" display="https://www.vitaminshoppe.com/b/ketologic/N-cp99vr" xr:uid="{0ECE151B-6CA6-1447-B258-C85434A976E2}"/>
+    <hyperlink ref="D4" r:id="rId9" display="https://www.vitaminshoppe.com/b/bpi-sports/N-cp97eq" xr:uid="{56066AB6-0722-5E47-B9F1-13C4884277D2}"/>
+    <hyperlink ref="D5" r:id="rId10" display="https://www.vitaminshoppe.com/b/nature-fuel/N-cp9a0h" xr:uid="{F44CF03D-40C7-7E48-838B-CC330DDDFF14}"/>
+    <hyperlink ref="D6" r:id="rId11" display="https://www.vitaminshoppe.com/b/fitfactor-keto/N-cp9a6i" xr:uid="{7DAB8674-1CFB-204F-A932-CFE2C169D8B7}"/>
+    <hyperlink ref="D7" r:id="rId12" display="https://www.vitaminshoppe.com/b/fitfactor-keto/N-cp9a6i" xr:uid="{9ED15AAA-98E4-BF4F-A8CB-D7375F20B4CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cadence.xlsx
+++ b/cadence.xlsx
@@ -2,21 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur.lurye/Documents/cadence-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FA020-5055-FB4F-ABE3-E06A2CE23753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025C9B4-678C-8C42-A746-DB5008E37E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1560" windowWidth="29240" windowHeight="16940" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
+    <workbookView xWindow="14700" yWindow="0" windowWidth="18900" windowHeight="21000" activeTab="2" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Html Ads" sheetId="9" r:id="rId1"/>
     <sheet name="heroBanners" sheetId="10" r:id="rId2"/>
+    <sheet name="Cross Promos" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -263,13 +265,190 @@
   </si>
   <si>
     <t>2-AQ WK 10 STOPBY10_728X90_copy</t>
+  </si>
+  <si>
+    <t>bgColor</t>
+  </si>
+  <si>
+    <t>promo</t>
+  </si>
+  <si>
+    <t>cta</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>2003_Bang Candy Apple CPCM</t>
+  </si>
+  <si>
+    <t>2003_Apparel Get in Gear CPCM</t>
+  </si>
+  <si>
+    <t>2003_10 Ways Women Can Support Fertility CPCM</t>
+  </si>
+  <si>
+    <t>2003_Black Seed Oil CPCM</t>
+  </si>
+  <si>
+    <t>2003_Browse Videos CPCM</t>
+  </si>
+  <si>
+    <t>2003_Welcome to CBD Centeral CPCM</t>
+  </si>
+  <si>
+    <t>2003_Curious About CBD CPCM</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Bang Candy Apple Cross Promo Module', position : 'Cross Promo Module', name : '2003_Bang Candy Apple', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>/p/bang-candy-apple-crisp-12-drinks/vz-2082</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_10 Ways Women Can Support Fertility Cross Promo Module', position : 'Cross Promo Module', name : '2003_10 Ways Women Can Support Fertility', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>https://whatsgood.vitaminshoppe.com/10-ways-women-can-support-their-fertility-naturally/</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Apparel Get in Gear Cross Promo Module', position : 'Cross Promo Module', name : '2003_Apparel Get in Gear', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Black Seed Oil Cross Promo Module', position : 'Cross Promo Module', name : '2003_Black Seed Oil', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Browse Videos Cross Promo Module', position : 'Cross Promo Module', name : '2003_Browse Videos', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Welcome to CBD Centeral  Cross Promo Module', position : 'Cross Promo Module', name : '2003_Welcome to CBD Centeral ', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2003_Curious About CBD Cross Promo Module', position : 'Cross Promo Module', name : '2003_Curious About CBD', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>10-Ways-Women-Can-Support-Their-Fertility-Naturally-BLOG-CPCM_06</t>
+  </si>
+  <si>
+    <t>Apparel_V2_A_CPCM_06</t>
+  </si>
+  <si>
+    <t>BangNewFlavor_CandyAppleCrisp_123019_CPCM_06</t>
+  </si>
+  <si>
+    <t>Black-Seed-Oil-101_CPCM_06</t>
+  </si>
+  <si>
+    <t>BROWSEOURVIDEOSCPCM_V1_A_CPCM-static_06</t>
+  </si>
+  <si>
+    <t>CBD-ASSET-UPDATE-62270_V2_A_CPCM_CPCM_0</t>
+  </si>
+  <si>
+    <t>CuriousAboutCBD_V1_A_CPCM_06</t>
+  </si>
+  <si>
+    <t>WHAT TO KNOW IF YOU'RE CURIOUS ABOUT TRYING CBD HEMP EXTRACT</t>
+  </si>
+  <si>
+    <t>From celebrity endorsers to licensed physicians, everybody's talking about CBD. But what exactly is it?</t>
+  </si>
+  <si>
+    <t>CHECK IT OUT &gt;</t>
+  </si>
+  <si>
+    <t>hemp</t>
+  </si>
+  <si>
+    <t>FIND THE CBD THAT'S RIGHT FOR YOU</t>
+  </si>
+  <si>
+    <t>LEARN MORE &gt;</t>
+  </si>
+  <si>
+    <t>cbd-central</t>
+  </si>
+  <si>
+    <t>The Vitamin Shoppe&lt;sup&gt;&amp;reg;&lt;/sup&gt; is your one-stop destination for CBD hemp extract from brands you can trust.</t>
+  </si>
+  <si>
+    <t>BROWSE OUR VIDEO GALLERY&amp;mdash;RECIPES, WORKOUTS &amp;amp; MORE!</t>
+  </si>
+  <si>
+    <t>Want some tips on your path to wellness? Watch these.</t>
+  </si>
+  <si>
+    <t>gallery</t>
+  </si>
+  <si>
+    <t>black-seed</t>
+  </si>
+  <si>
+    <t>apparel</t>
+  </si>
+  <si>
+    <t>fertility</t>
+  </si>
+  <si>
+    <t>bang</t>
+  </si>
+  <si>
+    <t>#E4E4E4</t>
+  </si>
+  <si>
+    <t>#D3DEC0</t>
+  </si>
+  <si>
+    <t>BLACK SEED OIL 101</t>
+  </si>
+  <si>
+    <t>SHOP BLACK SEED OILS&gt; &lt;Br&gt; &lt;br&gt; a &lt;a href=""&gt;SHOP OUR PICK: PLNT&lt;sup&gt;&amp;reg;&lt;/sup&gt; BRAND ORGANIC &gt;</t>
+  </si>
+  <si>
+    <t>Used for centuries in Ayurvedic medicine and Middle Eastern countries, black seed oil is a popular antioxidant for immune support and cellular health.</t>
+  </si>
+  <si>
+    <t>#886349</t>
+  </si>
+  <si>
+    <t>GET IN GEAR!</t>
+  </si>
+  <si>
+    <t>Now you can rep your squad with apparel from brands you love</t>
+  </si>
+  <si>
+    <t>FIND YOUR FIT&gt;</t>
+  </si>
+  <si>
+    <t>#FCFCFC</t>
+  </si>
+  <si>
+    <t>#B2B4CB</t>
+  </si>
+  <si>
+    <t>10 WAYS WOMEN CAN SUPPORT THEIR FERTILITY NATURALLY</t>
+  </si>
+  <si>
+    <t>Fertility issues at an all-tme high, so it's important that women find ways to support their reproductive health every day.</t>
+  </si>
+  <si>
+    <t>#F4CB93</t>
+  </si>
+  <si>
+    <t>New Bang Flavor Revealed: Candy Apple Crisp!</t>
+  </si>
+  <si>
+    <t>Fuel performance with BANG'S newest sugar-free energy drink feat. 300 mg caffeine, Super Creatine&lt;sup&gt;&amp;reg;&lt;/sup&gt; &amp;amp; EAAs!</t>
+  </si>
+  <si>
+    <t>SHOP NOW&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +525,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -361,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,12 +571,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,6 +599,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -716,9 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B95EF76-0683-7442-8057-403F4623BCC9}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -923,6 +1124,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BC099C-CB2B-0E4A-8119-3E6C0EAF1566}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1197,4 +1399,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342D0A18-1692-8545-B69B-D55DE77D3227}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A2992379-05B9-5F47-938A-A43E9D04823C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cadence.xlsx
+++ b/cadence.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur.lurye/Documents/cadence-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9B69B-8F4F-414B-A4D8-ADCA4E48A7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44377F45-3815-3148-866D-D209C9245F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1100" windowWidth="29240" windowHeight="16940" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
+    <workbookView xWindow="3060" yWindow="1100" windowWidth="29240" windowHeight="16940" activeTab="5" xr2:uid="{49AB680B-4460-7D4B-AC28-ED89FA0896F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Homepage Billboards" sheetId="46" r:id="rId1"/>
+    <sheet name="Homepage Billboards" sheetId="64" r:id="rId1"/>
+    <sheet name="Promo Short Billboard" sheetId="63" r:id="rId2"/>
+    <sheet name="Deals Drawer Main" sheetId="61" r:id="rId3"/>
+    <sheet name="Deals Drawer Right" sheetId="62" r:id="rId4"/>
+    <sheet name="Health Fitness Section" sheetId="60" r:id="rId5"/>
+    <sheet name="Feature Product Spotlight" sheetId="58" r:id="rId6"/>
+    <sheet name="Cross Promos" sheetId="57" r:id="rId7"/>
+    <sheet name="heroBanners" sheetId="59" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,30 +38,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="186">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>url</t>
   </si>
   <si>
+    <t>preHeader</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
     <t>ctaText</t>
   </si>
   <si>
+    <t>imageName</t>
+  </si>
+  <si>
     <t>trackingCode</t>
   </si>
   <si>
+    <t>brandDescription</t>
+  </si>
+  <si>
     <t>Shop Now</t>
   </si>
   <si>
     <t>/c/best-sellers/N-cp99qp</t>
   </si>
   <si>
-    <t>15% OFF</t>
-  </si>
-  <si>
-    <t>ng-click="asset.promoClick({id :  '2003_CHAMPION 20p off 2 items Deals Drawer Left Main Feature', position : 'Deals Drawer Left Main Feature', name : '2003_CHAMPION 20p off 2 items', creative: '20% Off'})"</t>
-  </si>
-  <si>
-    <t>CHAMPIONCoupon_HPBillboard</t>
+    <t>postHeaderText2</t>
+  </si>
+  <si>
+    <t>postHeaderText3</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>badge1</t>
+  </si>
+  <si>
+    <t>badge2</t>
+  </si>
+  <si>
+    <t>bgColor</t>
+  </si>
+  <si>
+    <t>promo</t>
+  </si>
+  <si>
+    <t>cta</t>
+  </si>
+  <si>
+    <t>className</t>
   </si>
   <si>
     <t>desktopImageName</t>
@@ -64,18 +103,63 @@
     <t>mobileImageName</t>
   </si>
   <si>
-    <t>CHAMPIONCoupon_MobileBillboard</t>
-  </si>
-  <si>
-    <t>any 2 items (or more) &lt;sup&gt;*&lt;/sup&gt;</t>
+    <t>postHeaderText1</t>
   </si>
   <si>
     <t>PLUS FREE SHIPPING</t>
   </si>
   <si>
+    <t>skuNumber</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>vitamins &amp; supplements</t>
+  </si>
+  <si>
+    <t>Protein &amp; Fitness Featured Product 1</t>
+  </si>
+  <si>
+    <t>Protein &amp; Fitness Featured Product 2</t>
+  </si>
+  <si>
+    <t>BodyTech</t>
+  </si>
+  <si>
+    <t>Digestion 1</t>
+  </si>
+  <si>
+    <t>The Vitamin Shoppe</t>
+  </si>
+  <si>
+    <t>Digestion 2</t>
+  </si>
+  <si>
+    <t>Weight Control Featured Product (Healthy Weight) 1</t>
+  </si>
+  <si>
+    <t>Weight Control Featured Product (Healthy Weight) 2</t>
+  </si>
+  <si>
     <t>50% OFF</t>
   </si>
   <si>
+    <t>/p/celery-power-32-fl-oz/vy-1082</t>
+  </si>
+  <si>
+    <t>Windmill Consumer Products</t>
+  </si>
+  <si>
+    <t>Organic Celery Power Juice Cleanse</t>
+  </si>
+  <si>
+    <t>Sports Research Corporation</t>
+  </si>
+  <si>
+    <t>/b/irwin-naturals/N-95h</t>
+  </si>
+  <si>
     <t>pretitle</t>
   </si>
   <si>
@@ -85,20 +169,440 @@
     <t>title</t>
   </si>
   <si>
-    <t>buy one, get one</t>
-  </si>
-  <si>
-    <t>60% OFF</t>
-  </si>
-  <si>
-    <t>your order of $65 or more*</t>
+    <t>Buy One, Get One</t>
+  </si>
+  <si>
+    <t>Superfoods &amp; Groceries Featured Product Feature 1</t>
+  </si>
+  <si>
+    <t>Superfoods &amp; Groceries Featured Product Feature 2</t>
+  </si>
+  <si>
+    <t>Herbs &amp; Natural Remedies Featured Product Feature 1</t>
+  </si>
+  <si>
+    <t>Herbs &amp; Natural Remedies Featured Product Feature 2</t>
+  </si>
+  <si>
+    <t>Joy Organics</t>
+  </si>
+  <si>
+    <t>Natural Beauty and Skin Featured Product 1</t>
+  </si>
+  <si>
+    <t>Natural Beauty and Skin Featured Product 2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium CBD Hemp Extract Gummies </t>
+  </si>
+  <si>
+    <t>/p/premium-cbd-gummies-10-mg-green-apple-30-gummies/joy0004</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Premium CBD Hemp Extract Gummies Shop All Categories Featured Product Vitamins and Supplements 1', position : 'Shop All Categories Featured Product Vitamins and Supplements 1', name : '2008_Premium CBD Hemp Extract Gummies', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Collagen Peptides Powder Shop All Categories Featured Product Vitamins and Supplements 2', position : 'Shop All Categories Featured Product Vitamins and Supplements 2', name : '2008_Collagen Peptides Powder', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>Collagen Peptides Powder</t>
+  </si>
+  <si>
+    <t>/p/collagen-peptides-powder-7-oz-powder/vs-4122</t>
+  </si>
+  <si>
+    <t>Muscle Milk</t>
+  </si>
+  <si>
+    <t>Genuine Protein - Chocolate</t>
+  </si>
+  <si>
+    <t>/p/muscle-milk-genuine-protein-powder-chocolate-2-47-lb-powder/mus0001</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Genuine Protein Chocolate Shop All Categories Featured Product Protein &amp; Fitness 1', position : 'Shop All Categories Featured Product Protein &amp; Fitness 1', name : '2008_Genuine Protein Chocolate', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>Beta-Alanine Powder</t>
+  </si>
+  <si>
+    <t>/p/bodytech-beta-alanine-5-1-oz-powder/vs-2699</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Beta Alanine Powder Shop All Categories Featured Product Protein &amp; Fitness 2', position : 'Shop All Categories Featured Product Protein &amp; Fitness 2', name : '2008_Beta Alanine Powder', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>Ultimate 10+ Probiotics</t>
+  </si>
+  <si>
+    <t>/p/ultimate-10-probiotic-20-billion-cfus-20-billion-cfus-60-capsules/vs-3819</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Ultimate 10 Probiotics Shop All Categories Featured Product Digestion &amp; Super Foods 1', position : 'Shop All Categories Featured Product Digestion &amp; Super Foods 1', name : '2008_Ultimate 10 Probiotics', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Organic Celery Power Juice Cleanse Shop All Categories Featured Product Digestion &amp; Super Foods 2', position : 'Shop All Categories Featured Product Digestion &amp; Super Foods 2', name : '2008_Organic Celery Power Juice Cleanse', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Keto Weight Loss Support Shop All Categories Featured Product Weight Control 1', position : 'Shop All Categories Featured Product Weight Control 1', name : '2008_Keto Weight Loss Support', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>BPI</t>
+  </si>
+  <si>
+    <t>Keto Weight Loss Support Supplement</t>
+  </si>
+  <si>
+    <t>/p/keto-weight-loss-75-capsules/1b-1139</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Sweet Sweat Workout Enhancer Shop All Categories Featured Product Weight Control 2', position : 'Shop All Categories Featured Product Weight Control 2', name : '2008_Sweet Sweat Workout Enhancer', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>Sweet Sweat Workout Enhancer</t>
+  </si>
+  <si>
+    <t>/p/sports-research-sweet-sweat-jar-1-jar/sc-1006</t>
+  </si>
+  <si>
+    <t>2008_BT Elite Shred and Focus Pills</t>
+  </si>
+  <si>
+    <t>/p/bodytech-elite-shred-focus-xt/vs-3906</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_BT Elite Shred and Focus Pills Cross Promo Module', position : 'Cross Promo Module', name : '2008_BT Elite Shred and Focus Pills', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>BODYTECH_FocusPills_072720_CPCM</t>
+  </si>
+  <si>
+    <t>#ffffff</t>
+  </si>
+  <si>
+    <t>Meet Shred + Focus XT from BodyTech&lt;sup&gt;&amp;reg;&lt;/sup&gt; Elite</t>
+  </si>
+  <si>
+    <t>With Capsimax&lt;sup&gt;*&lt;/sup&gt;to increase calorie burning &amp; thermogenesis + Teacrine&lt;sup&gt;*&lt;/sup&gt; for cognitive function.</t>
+  </si>
+  <si>
+    <t>bodytech</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2008_Irwin Naturals BOGO 50 Deals Drawer Left Main Feature', position : 'Deals Drawer Left Main Feature', name : '2008_Irwin Naturals BOGO 50', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>Orgain</t>
+  </si>
+  <si>
+    <t>Organic Grass-Fed All-In-One Nutritional Shake - Creamy Chocolate Fudge</t>
+  </si>
+  <si>
+    <t>/p/orgain-orgain-ready-to-drink-creamy-chocolate-fudge-12-drinks/o4-1001</t>
+  </si>
+  <si>
+    <t>/p/dr-formulated-cbd-gummies-20-mg-tart-cherry-60-gummies/gu-0037</t>
+  </si>
+  <si>
+    <t>BOGO 50% Betancourt Nutrition&lt;sup&gt;&amp;reg;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>/c/vitamin-shoppe-bodytech-bodytech-elite/N-cp9a3e</t>
+  </si>
+  <si>
+    <t>/b/vpx-vital-pharmaceuticals/N-9cv</t>
+  </si>
+  <si>
+    <t>/c/protect-yourself-boost-your-immune-system/N-cp9a8t</t>
+  </si>
+  <si>
+    <t>REBOOT20_COUPON_DD1</t>
+  </si>
+  <si>
+    <t>$10 OFF $65 &lt;sup&gt;*&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>$25 OFF $125</t>
+  </si>
+  <si>
+    <t>Online Only | Use code: REBOOT20</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_REBOOT20 BMSM Homepage Main Billboard 1', position : 'Homepage Main Billboard 1', name : '2009_REBOOT20 BMSM', creative: 'Buy More Save More'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_VSB BT BTE BOGO50 V1 Homepage Small Billboard 1', position : 'Homepage Small Billboard 1', name : '2009_VSB BT BTE BOGO50 V1', creative: 'BOGO50'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_Quest BOGO50 Homepage Small Billboard 2 ', position : 'Homepage Small Billboard 2 ', name : '2009_Quest BOGO50', creative: 'BOGO50'}"</t>
+  </si>
+  <si>
+    <t>/b/quest-nutrition/N-9a0</t>
+  </si>
+  <si>
+    <t>REBOOT20_COUPON_DESKTOP_A1</t>
+  </si>
+  <si>
+    <t>REBOOT20_COUPON_MOBILE_A1_V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSBBT_BOGO50_082420_Version1_MOBILE_A2 </t>
+  </si>
+  <si>
+    <t>Quest_BOGO50_082420_DESKTOP_A2</t>
+  </si>
+  <si>
+    <t>Quest_BOGO50_082420_MOBILE_A2</t>
+  </si>
+  <si>
+    <t>Quest cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vitamin Shoppe&lt;sup&gt;&amp;reg;&lt;/sup&gt;, BodyTech Elite&lt;su&gt;p&amp;reg;&lt;/sup&gt; &lt;br&gt; &amp;amp; BodyTech Elite </t>
+  </si>
+  <si>
+    <t>$10 OFF $65&lt;sup&gt;*&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>VSBBT_BOGO50_082420_Version1_DESKTOP_A2</t>
+  </si>
+  <si>
+    <t>/b/nugenix/N-cp982s</t>
+  </si>
+  <si>
+    <t>/b/celsius/N-91r</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_Nugenix 20p off Homepage Round Billboard 1', position : 'Homepage Round Billboard 1', name : '2009_Nugenix 20p off', creative: '20% Off'}"</t>
+  </si>
+  <si>
+    <t>Nugenix_20Off_082420_RESPONSIVE_B</t>
+  </si>
+  <si>
+    <t>Nugenix Is &lt;br&gt; 20% Off!</t>
+  </si>
+  <si>
+    <t>/c/cbd-hemp-extract/sale/N-cp9a1pZ1z12pxm</t>
+  </si>
+  <si>
+    <t>/b/gat/N-940</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_Bang 3d off Homepage Content Module 1', position : 'Homepage Content Module 1', name : '2009_Bang 3d off', creative: '$3 Off'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_CBD Hemp Up to 15p off Homepage Content Module 2', position : 'Homepage Content Module 2', name : '2009_CBD Hemp Up to 15p off', creative: 'Up to 15% Off'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_GAT BOGO50  Homepage Content Module 3', position : 'Homepage Content Module 3', name : '2009_GAT BOGO50 ', creative: 'BOGO50'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_PPE Immune Boosters Homepage Content Module 4', position : 'Homepage Content Module 4', name : '2009_PPE Immune Boosters', creative: 'General'}"</t>
+  </si>
+  <si>
+    <t>Bang_3Off_082420_RESPONSIVE_C</t>
+  </si>
+  <si>
+    <t>CBD_Upto15Off_082420_RESPONSIVE_C</t>
+  </si>
+  <si>
+    <t>GAT_BOGO50_090720_RESPONSIVE_C</t>
+  </si>
+  <si>
+    <t>PPE_ImmuneBoosters_082420_RESPONSIVE_C</t>
+  </si>
+  <si>
+    <t>$3 Off Bang Cases</t>
+  </si>
+  <si>
+    <t>Everyone’s favorite energy drinks are on sale! Hydrate, recover, and rock on.</t>
+  </si>
+  <si>
+    <t>Up to 15% Off Hemp Extract</t>
+  </si>
+  <si>
+    <t>Pay less for broad &amp; full spectrum products from quality brands.</t>
+  </si>
+  <si>
+    <t>Compete harder with stackable, proven formulas backed by science &amp; research.</t>
+  </si>
+  <si>
+    <t>Protect Yourself &amp; Your Family</t>
+  </si>
+  <si>
+    <t>Get powerful immune support, breathable masks, hand sanitizer, CleanKey “no touch” tools, &amp; more.</t>
+  </si>
+  <si>
+    <t>Serovital_15Off_082420_RESPONSIVE_B</t>
+  </si>
+  <si>
+    <t>Save 15% on &lt;br&gt; SeroVital</t>
+  </si>
+  <si>
+    <t>/b/sanmedica/N-cp98o8</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_SeroVital 15d off Homepage Round Billboard 2', position : 'Homepage Round Billboard 2', name : '2009_SeroVital 15d off', creative: '$15 Off'}"</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_Boiron BOGO50 Homepage Round Billboard 3', position : 'Homepage Round Billboard 3', name : '2009_Boiron BOGO50', creative: 'BOGO50'}"</t>
+  </si>
+  <si>
+    <t>/b/boiron/N-915</t>
+  </si>
+  <si>
+    <t>data-promoclick="{id :  '2009_New Quest PB cups Homepage Round Billboard 4', position : 'Homepage Round Billboard 4', name : '2009_New Quest PB cups', creative: 'General'}"</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>BOIRON_BOGO50_0824204_RESPONSIVE_B</t>
+  </si>
+  <si>
+    <t>NewQuestPBCups_092120_RESPONSIVE_B</t>
+  </si>
+  <si>
+    <t>New from Quest: &lt;br&gt; Peanut Butter Cups!</t>
+  </si>
+  <si>
+    <t>BOGO 50% Off &lt;br&gt; Boiron</t>
+  </si>
+  <si>
+    <t>2009_FALLYALL BMSM</t>
+  </si>
+  <si>
+    <t>Celsius fitness drink cases</t>
+  </si>
+  <si>
+    <t>Celsius_BOGO50_082420_DD2</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2009_Celsius BOGO50 Deals Drawer Right Lower Feature', position : 'Deals Drawer Right Lower Feature', name : '2009_Celsius BOGO50', creative: 'BOGO50'})"</t>
+  </si>
+  <si>
+    <t>2009_Celsius BOGO50</t>
+  </si>
+  <si>
+    <t>S_2009_FALLYALL BMSM</t>
+  </si>
+  <si>
+    <t>S_2009_Vital Proteins BOGO Free Pre and Recover</t>
+  </si>
+  <si>
+    <t>S_2009_NOLINE10 10p BOPUS- Not released</t>
+  </si>
+  <si>
+    <t>$20 OFF $100</t>
+  </si>
+  <si>
+    <t>$10 OFF $60&lt;sup&gt;*&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Online Only | Use Code: FALLYALL</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>Recovery &amp;amp; Pre by Vital Performance</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2009_FALLYALL BMSM Hero Banner', position : 'Hero Banner', name : '2009_FALLYALL BMSM', creative: 'Buy More Save More'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2009_NOLINE10 10p BOPUS Hero Banner', position : 'Hero Banner', name : '2009_NOLINE10 10p BOPUS', creative: '10% Off'})"</t>
+  </si>
+  <si>
+    <t>FALLYALL_Coupon_L3</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2009_Vital Proteins BOGO Free Pre and Recover Hero Banner', position : 'Hero Banner', name : '2009_Vital Proteins BOGO Free Pre and Recover', creative: 'BOGOFREE'})"</t>
+  </si>
+  <si>
+    <t>/b/vital-proteins-protein-fitness/N-cp99bcZcp99ix</t>
+  </si>
+  <si>
+    <t>NOLINE10_Coupon_L3</t>
+  </si>
+  <si>
+    <t>10% OFF</t>
+  </si>
+  <si>
+    <t>With 2-Hour (In-Store or Curbside)&lt;sup&gt;*&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Use Code:&lt;span&gt;NOLINE10&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Choose &lt;strong&gt;"Pick Up In-Store" when you shop online.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>One Brands</t>
+  </si>
+  <si>
+    <t>Protein Bar Limited Seasonal Flavor - Pumpkin Pie</t>
+  </si>
+  <si>
+    <t>/p/oh-yeah-one-bar-pumpkin-12-bars/is-1079</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_Protein Bar Limited Seasonal Flavor Pumpkin Pie Shop All Categories Featured Product Food &amp; Drink 1', position : 'Shop All Categories Featured Product Food &amp; Drink 1', name : '2010_Protein Bar Limited Seasonal Flavor Pumpkin Pie', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_Organic Grass Fed All In One Nutritional Shake Shop All Categories Featured Product Food &amp; Drink 2', position : 'Shop All Categories Featured Product Food &amp; Drink 2', name : '2010_Organic Grass Fed All In One Nutritional Shake', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_Sea Moss  Shop All Categories Featured Product Herbs &amp; Homeopathy 1', position : 'Shop All Categories Featured Product Herbs &amp; Homeopathy 1', name : '2010_Sea Moss ', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_Natural Calm Magnesium Sleep Gummies Blueberry Pomegranate Shop All Categories Featured Product Herbs &amp; Homeopathy 2', position : 'Shop All Categories Featured Product Herbs &amp; Homeopathy 2', name : '2010_Natural Calm Magnesium Sleep Gummies Blueberry Pomegranate', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_CBD Hemp Extract Body Lotion Shop All Categories Featured Product Bath &amp; Beauty 1', position : 'Shop All Categories Featured Product Bath &amp; Beauty 1', name : '2010_CBD Hemp Extract Body Lotion', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>ng-click="asset.promoClick({id :  '2010_Betonite Clay Soothing Facial Mask Shop All Categories Featured Product Bath &amp; Beauty 2', position : 'Shop All Categories Featured Product Bath &amp; Beauty 2', name : '2010_Betonite Clay Soothing Facial Mask', creative: 'General'})"</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>Natural Vitality</t>
+  </si>
+  <si>
+    <t>Natural Calm Magnesium Sleep Gummies - Blueberry Pomegranate</t>
+  </si>
+  <si>
+    <t>/p/calm-sleep-gummies-blueberry-pomegranate-120-gummies/n3-1027</t>
+  </si>
+  <si>
+    <t>HydroCanna</t>
+  </si>
+  <si>
+    <t>CBD Hemp Extract Body Lotion</t>
+  </si>
+  <si>
+    <t>/p/cbd-body-lotion-140-mg-6-7-oz-lotion/hyd0001</t>
+  </si>
+  <si>
+    <t>Betonite Clay Soothing Facial Mask</t>
+  </si>
+  <si>
+    <t>/p/bentonite-clay-16-oz-powder/vs-3726</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,8 +619,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
@@ -125,6 +651,54 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,13 +742,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,11 +1080,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D576CFA3-FC16-D24C-A9E0-3262328AC05A}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC46609-78B4-2D4A-8847-58B6F805FEC3}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,107 +1095,1062 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36950AB-EFCE-D74E-8313-9F3C098DD9AE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BC8EFB-1722-9A4B-92F2-9B3CF1F8267C}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDD1E84-6556-F742-B966-A4E0AB09640E}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE5606-3352-E84F-BAC4-E5C23EA59B0D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD57DBB-E4AE-8145-8CEE-AA0F7DF7626C}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2205219</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2145605</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2206118</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1991306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2185197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2189967</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2102978</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1970946</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10">
+        <v>2093532</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>1760834</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13">
+        <v>2207462</v>
+      </c>
+      <c r="E13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14">
+        <v>2206738</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15">
+        <v>2181931</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244846F-1E3F-7741-902B-CB7F6C9C46AE}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2B187-13F1-F64C-8158-E5AC3A12F2F8}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" customWidth="1"/>
+    <col min="8" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+      <c r="C6" s="4"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
